--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{1BC00245-C0E9-46D6-BFA7-7553ADBC7675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F778250-0EB5-425C-9F57-264BEEDA1F43}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4E323B-40BB-4B3A-8134-DC3A53B57E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3276" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1744,9 +1744,6 @@
   </si>
   <si>
     <t>Nufus</t>
-  </si>
-  <si>
-    <t>1.500.000</t>
   </si>
 </sst>
 </file>
@@ -1909,10 +1906,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2180,16 +2173,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="1" max="4" customWidth="true" width="25.6328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2199,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2223,7 +2216,7 @@
         <v>1500000.0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2237,7 +2230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2251,7 +2244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2265,7 +2258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2279,7 +2272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2293,7 +2286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2307,7 +2300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2321,7 +2314,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2338,7 +2331,7 @@
         <v>250000.0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2352,7 +2345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2366,7 +2359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2380,7 +2373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2394,7 +2387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2411,7 +2404,7 @@
         <v>54000.0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -2425,7 +2418,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
@@ -2439,7 +2432,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
@@ -2453,7 +2446,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
@@ -2467,7 +2460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
@@ -2481,7 +2474,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>62</v>
       </c>
@@ -2495,7 +2488,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
@@ -2509,7 +2502,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>68</v>
       </c>
@@ -2523,7 +2516,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>72</v>
       </c>
@@ -2537,7 +2530,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>75</v>
       </c>
@@ -2551,7 +2544,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>78</v>
       </c>
@@ -2565,7 +2558,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>80</v>
       </c>
@@ -2579,7 +2572,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
@@ -2593,7 +2586,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>86</v>
       </c>
@@ -2607,7 +2600,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>88</v>
       </c>
@@ -2621,7 +2614,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
@@ -2635,7 +2628,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>94</v>
       </c>
@@ -2649,7 +2642,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>97</v>
       </c>
@@ -2663,7 +2656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>101</v>
       </c>
@@ -2677,7 +2670,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>104</v>
       </c>
@@ -2691,7 +2684,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>108</v>
       </c>
@@ -2705,7 +2698,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>111</v>
       </c>
@@ -2719,7 +2712,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>115</v>
       </c>
@@ -2733,7 +2726,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>118</v>
       </c>
@@ -2747,7 +2740,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>121</v>
       </c>
@@ -2761,7 +2754,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>124</v>
       </c>
@@ -2775,7 +2768,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>127</v>
       </c>
@@ -2789,7 +2782,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
         <v>130</v>
       </c>
@@ -2803,7 +2796,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>133</v>
       </c>
@@ -2817,7 +2810,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
         <v>136</v>
       </c>
@@ -2831,7 +2824,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>140</v>
       </c>
@@ -2845,7 +2838,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
         <v>144</v>
       </c>
@@ -2859,7 +2852,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>148</v>
       </c>
@@ -2873,7 +2866,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>150</v>
       </c>
@@ -2887,7 +2880,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>153</v>
       </c>
@@ -2901,7 +2894,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
         <v>156</v>
       </c>
@@ -2915,7 +2908,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>159</v>
       </c>
@@ -2929,7 +2922,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
         <v>163</v>
       </c>
@@ -2943,7 +2936,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>167</v>
       </c>
@@ -2957,7 +2950,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>169</v>
       </c>
@@ -2971,7 +2964,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>172</v>
       </c>
@@ -2985,7 +2978,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
         <v>175</v>
       </c>
@@ -2999,7 +2992,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>178</v>
       </c>
@@ -3013,7 +3006,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
         <v>181</v>
       </c>
@@ -3027,7 +3020,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>183</v>
       </c>
@@ -3041,7 +3034,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
         <v>186</v>
       </c>
@@ -3055,7 +3048,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>189</v>
       </c>
@@ -3069,7 +3062,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
         <v>191</v>
       </c>
@@ -3083,7 +3076,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>194</v>
       </c>
@@ -3097,7 +3090,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
         <v>198</v>
       </c>
@@ -3111,7 +3104,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>201</v>
       </c>
@@ -3125,7 +3118,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
         <v>204</v>
       </c>
@@ -3139,7 +3132,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>208</v>
       </c>
@@ -3153,7 +3146,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
         <v>210</v>
       </c>
@@ -3167,7 +3160,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>212</v>
       </c>
@@ -3181,7 +3174,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
         <v>215</v>
       </c>
@@ -3195,7 +3188,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>218</v>
       </c>
@@ -3209,7 +3202,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4" t="s">
         <v>220</v>
       </c>
@@ -3223,7 +3216,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>222</v>
       </c>
@@ -3237,7 +3230,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4" t="s">
         <v>224</v>
       </c>
@@ -3251,7 +3244,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>228</v>
       </c>
@@ -3265,7 +3258,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4" t="s">
         <v>231</v>
       </c>
@@ -3279,7 +3272,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>234</v>
       </c>
@@ -3293,7 +3286,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4" t="s">
         <v>238</v>
       </c>
@@ -3307,7 +3300,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>242</v>
       </c>
@@ -3321,7 +3314,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4" t="s">
         <v>246</v>
       </c>
@@ -3335,7 +3328,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>249</v>
       </c>
@@ -3349,7 +3342,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4" t="s">
         <v>252</v>
       </c>
@@ -3363,7 +3356,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>256</v>
       </c>
@@ -3377,7 +3370,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
         <v>259</v>
       </c>
@@ -3391,7 +3384,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
         <v>262</v>
       </c>
@@ -3405,7 +3398,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4" t="s">
         <v>265</v>
       </c>
@@ -3419,7 +3412,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>268</v>
       </c>
@@ -3433,7 +3426,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4" t="s">
         <v>270</v>
       </c>
@@ -3447,7 +3440,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>272</v>
       </c>
@@ -3461,7 +3454,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4" t="s">
         <v>275</v>
       </c>
@@ -3475,7 +3468,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
         <v>279</v>
       </c>
@@ -3489,7 +3482,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4" t="s">
         <v>282</v>
       </c>
@@ -3503,7 +3496,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>286</v>
       </c>
@@ -3517,7 +3510,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4" t="s">
         <v>288</v>
       </c>
@@ -3531,7 +3524,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>291</v>
       </c>
@@ -3545,7 +3538,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4" t="s">
         <v>295</v>
       </c>
@@ -3559,7 +3552,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
         <v>298</v>
       </c>
@@ -3573,7 +3566,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4" t="s">
         <v>300</v>
       </c>
@@ -3587,7 +3580,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
         <v>303</v>
       </c>
@@ -3601,7 +3594,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4" t="s">
         <v>305</v>
       </c>
@@ -3615,7 +3608,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
         <v>309</v>
       </c>
@@ -3629,7 +3622,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4" t="s">
         <v>312</v>
       </c>
@@ -3643,7 +3636,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
         <v>315</v>
       </c>
@@ -3657,7 +3650,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4" t="s">
         <v>318</v>
       </c>
@@ -3671,7 +3664,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
         <v>321</v>
       </c>
@@ -3685,7 +3678,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4" t="s">
         <v>323</v>
       </c>
@@ -3699,7 +3692,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
         <v>325</v>
       </c>
@@ -3713,7 +3706,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4" t="s">
         <v>328</v>
       </c>
@@ -3727,7 +3720,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="3" t="s">
         <v>332</v>
       </c>
@@ -3741,7 +3734,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4" t="s">
         <v>335</v>
       </c>
@@ -3755,7 +3748,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="3" t="s">
         <v>338</v>
       </c>
@@ -3769,7 +3762,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4" t="s">
         <v>341</v>
       </c>
@@ -3783,7 +3776,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="3" t="s">
         <v>344</v>
       </c>
@@ -3797,7 +3790,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4" t="s">
         <v>346</v>
       </c>
@@ -3811,7 +3804,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="3" t="s">
         <v>350</v>
       </c>
@@ -3825,7 +3818,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4" t="s">
         <v>353</v>
       </c>
@@ -3839,7 +3832,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="3" t="s">
         <v>356</v>
       </c>
@@ -3853,7 +3846,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4" t="s">
         <v>359</v>
       </c>
@@ -3867,7 +3860,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="3" t="s">
         <v>362</v>
       </c>
@@ -3881,7 +3874,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4" t="s">
         <v>365</v>
       </c>
@@ -3895,7 +3888,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="3" t="s">
         <v>368</v>
       </c>
@@ -3909,7 +3902,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4" t="s">
         <v>371</v>
       </c>
@@ -3923,7 +3916,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="3" t="s">
         <v>374</v>
       </c>
@@ -3937,7 +3930,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4" t="s">
         <v>377</v>
       </c>
@@ -3951,7 +3944,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="3" t="s">
         <v>380</v>
       </c>
@@ -3965,7 +3958,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4" t="s">
         <v>383</v>
       </c>
@@ -3979,7 +3972,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="3" t="s">
         <v>386</v>
       </c>
@@ -3993,7 +3986,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4" t="s">
         <v>389</v>
       </c>
@@ -4007,7 +4000,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="3" t="s">
         <v>393</v>
       </c>
@@ -4021,7 +4014,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4" t="s">
         <v>396</v>
       </c>
@@ -4035,7 +4028,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="3" t="s">
         <v>398</v>
       </c>
@@ -4049,7 +4042,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4" t="s">
         <v>400</v>
       </c>
@@ -4063,7 +4056,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="3" t="s">
         <v>403</v>
       </c>
@@ -4077,7 +4070,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4" t="s">
         <v>405</v>
       </c>
@@ -4091,7 +4084,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="3" t="s">
         <v>407</v>
       </c>
@@ -4105,7 +4098,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4" t="s">
         <v>410</v>
       </c>
@@ -4119,7 +4112,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="3" t="s">
         <v>414</v>
       </c>
@@ -4133,7 +4126,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4" t="s">
         <v>418</v>
       </c>
@@ -4147,7 +4140,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="3" t="s">
         <v>421</v>
       </c>
@@ -4161,7 +4154,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4" t="s">
         <v>425</v>
       </c>
@@ -4175,7 +4168,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="3" t="s">
         <v>429</v>
       </c>
@@ -4189,7 +4182,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4" t="s">
         <v>432</v>
       </c>
@@ -4203,7 +4196,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="3" t="s">
         <v>435</v>
       </c>
@@ -4217,7 +4210,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4" t="s">
         <v>437</v>
       </c>
@@ -4231,7 +4224,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="3" t="s">
         <v>440</v>
       </c>
@@ -4245,7 +4238,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4" t="s">
         <v>442</v>
       </c>
@@ -4259,7 +4252,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="3" t="s">
         <v>443</v>
       </c>
@@ -4273,7 +4266,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4" t="s">
         <v>446</v>
       </c>
@@ -4287,7 +4280,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="3" t="s">
         <v>450</v>
       </c>
@@ -4301,7 +4294,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4" t="s">
         <v>452</v>
       </c>
@@ -4315,7 +4308,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="3" t="s">
         <v>456</v>
       </c>
@@ -4329,7 +4322,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4" t="s">
         <v>459</v>
       </c>
@@ -4343,7 +4336,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="3" t="s">
         <v>461</v>
       </c>
@@ -4357,7 +4350,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4" t="s">
         <v>463</v>
       </c>
@@ -4371,7 +4364,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="3" t="s">
         <v>466</v>
       </c>
@@ -4385,7 +4378,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4" t="s">
         <v>469</v>
       </c>
@@ -4399,7 +4392,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="3" t="s">
         <v>472</v>
       </c>
@@ -4413,7 +4406,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4" t="s">
         <v>476</v>
       </c>
@@ -4427,7 +4420,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="3" t="s">
         <v>479</v>
       </c>
@@ -4441,7 +4434,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4" t="s">
         <v>482</v>
       </c>
@@ -4455,7 +4448,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="3" t="s">
         <v>484</v>
       </c>
@@ -4469,7 +4462,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4" t="s">
         <v>487</v>
       </c>
@@ -4483,7 +4476,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="3" t="s">
         <v>490</v>
       </c>
@@ -4497,7 +4490,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4" t="s">
         <v>492</v>
       </c>
@@ -4511,7 +4504,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="3" t="s">
         <v>496</v>
       </c>
@@ -4525,7 +4518,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4" t="s">
         <v>499</v>
       </c>
@@ -4539,7 +4532,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="3" t="s">
         <v>503</v>
       </c>
@@ -4553,7 +4546,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4" t="s">
         <v>507</v>
       </c>
@@ -4567,7 +4560,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="3" t="s">
         <v>511</v>
       </c>
@@ -4581,7 +4574,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4" t="s">
         <v>514</v>
       </c>
@@ -4595,7 +4588,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="3" t="s">
         <v>516</v>
       </c>
@@ -4609,7 +4602,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4" t="s">
         <v>519</v>
       </c>
@@ -4623,7 +4616,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="3" t="s">
         <v>522</v>
       </c>
@@ -4637,7 +4630,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4" t="s">
         <v>525</v>
       </c>
@@ -4651,7 +4644,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="3" t="s">
         <v>528</v>
       </c>
@@ -4665,7 +4658,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4" t="s">
         <v>532</v>
       </c>
@@ -4679,7 +4672,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="3" t="s">
         <v>534</v>
       </c>
@@ -4693,7 +4686,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4" t="s">
         <v>536</v>
       </c>
@@ -4707,7 +4700,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="3" t="s">
         <v>539</v>
       </c>
@@ -4721,7 +4714,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4" t="s">
         <v>543</v>
       </c>
@@ -4735,7 +4728,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="3" t="s">
         <v>547</v>
       </c>
@@ -4749,7 +4742,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4" t="s">
         <v>550</v>
       </c>
@@ -4763,7 +4756,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="3" t="s">
         <v>552</v>
       </c>
@@ -4777,7 +4770,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4" t="s">
         <v>556</v>
       </c>
@@ -4791,7 +4784,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="3" t="s">
         <v>558</v>
       </c>
@@ -4805,7 +4798,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4" t="s">
         <v>560</v>
       </c>
@@ -4819,7 +4812,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="3" t="s">
         <v>562</v>
       </c>
@@ -4833,7 +4826,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4" t="s">
         <v>564</v>
       </c>
@@ -4847,7 +4840,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="3" t="s">
         <v>567</v>
       </c>
@@ -4861,7 +4854,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4" t="s">
         <v>570</v>
       </c>
@@ -4885,48 +4878,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E1" s="0">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="0">
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="0">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C5" s="0">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F7" s="0">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" s="0">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="0">
         <v>741</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="0">
         <v>324</v>
       </c>
@@ -4934,22 +4927,22 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F19" s="0">
         <v>5352</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D21" s="0">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E24" s="0">
         <v>67</v>
       </c>
@@ -4965,7 +4958,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
